--- a/teaching/traditional_assets/database/data/france/france_retail_automotive.xlsx
+++ b/teaching/traditional_assets/database/data/france/france_retail_automotive.xlsx
@@ -591,31 +591,31 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.003970541146333654</v>
+        <v>-0.002225819506272764</v>
       </c>
       <c r="H2">
-        <v>0.003970541146333654</v>
+        <v>-0.002225819506272764</v>
       </c>
       <c r="I2">
-        <v>-0.003554274735830932</v>
+        <v>-0.01070416835289357</v>
       </c>
       <c r="J2">
-        <v>-0.003554274735830932</v>
+        <v>-0.01070416835289357</v>
       </c>
       <c r="K2">
-        <v>-4.23</v>
+        <v>-9.01</v>
       </c>
       <c r="L2">
-        <v>-0.006772334293948128</v>
+        <v>-0.01823148522865237</v>
       </c>
       <c r="M2">
-        <v>0.077</v>
+        <v>0.08</v>
       </c>
       <c r="N2">
-        <v>0.003615023474178404</v>
+        <v>0.008519701810436634</v>
       </c>
       <c r="O2">
-        <v>-0.01820330969267139</v>
+        <v>-0.008879023307436182</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +627,79 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0.077</v>
+        <v>0.08</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>4.22</v>
+        <v>13.1</v>
       </c>
       <c r="V2">
-        <v>0.1981220657276995</v>
+        <v>1.395101171458999</v>
       </c>
       <c r="W2">
-        <v>-0.1414715719063545</v>
+        <v>-0.3618473895582329</v>
       </c>
       <c r="X2">
-        <v>0.1768971819115186</v>
+        <v>0.2555988101718658</v>
       </c>
       <c r="Y2">
-        <v>-0.3183687538178731</v>
+        <v>-0.6174461997300987</v>
       </c>
       <c r="Z2">
-        <v>7.589307411907657</v>
+        <v>4.933120383310042</v>
       </c>
       <c r="AA2">
-        <v>-0.02697448359659782</v>
+        <v>-0.05280495108804153</v>
       </c>
       <c r="AB2">
-        <v>0.05540736900748012</v>
+        <v>0.05236499156289162</v>
       </c>
       <c r="AC2">
-        <v>-0.08238185260407793</v>
+        <v>-0.1051699426509332</v>
       </c>
       <c r="AD2">
-        <v>98.3</v>
+        <v>62.3</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>98.3</v>
+        <v>62.3</v>
       </c>
       <c r="AG2">
-        <v>94.08</v>
+        <v>49.2</v>
       </c>
       <c r="AH2">
-        <v>0.8219063545150502</v>
+        <v>0.8690193890361277</v>
       </c>
       <c r="AI2">
-        <v>0.7965964343598054</v>
+        <v>0.7976952624839949</v>
       </c>
       <c r="AJ2">
-        <v>0.8153926157046282</v>
+        <v>0.8397337429595494</v>
       </c>
       <c r="AK2">
-        <v>0.7893941936566538</v>
+        <v>0.7569230769230768</v>
       </c>
       <c r="AL2">
-        <v>0.965</v>
+        <v>1.06</v>
       </c>
       <c r="AM2">
-        <v>0.965</v>
+        <v>1.06</v>
       </c>
       <c r="AN2">
-        <v>106.0409924487594</v>
+        <v>-14.52214452214452</v>
       </c>
       <c r="AO2">
-        <v>-2.300518134715026</v>
+        <v>-4.990566037735849</v>
       </c>
       <c r="AP2">
-        <v>101.4886731391586</v>
+        <v>-11.46853146853147</v>
       </c>
       <c r="AQ2">
-        <v>-2.300518134715026</v>
+        <v>-4.990566037735849</v>
       </c>
     </row>
     <row r="3">
@@ -719,31 +719,31 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.003970541146333654</v>
+        <v>-0.002225819506272764</v>
       </c>
       <c r="H3">
-        <v>0.003970541146333654</v>
+        <v>-0.002225819506272764</v>
       </c>
       <c r="I3">
-        <v>-0.003554274735830932</v>
+        <v>-0.01070416835289357</v>
       </c>
       <c r="J3">
-        <v>-0.003554274735830932</v>
+        <v>-0.01070416835289357</v>
       </c>
       <c r="K3">
-        <v>-4.23</v>
+        <v>-9.01</v>
       </c>
       <c r="L3">
-        <v>-0.006772334293948128</v>
+        <v>-0.01823148522865237</v>
       </c>
       <c r="M3">
-        <v>0.077</v>
+        <v>0.08</v>
       </c>
       <c r="N3">
-        <v>0.003615023474178404</v>
+        <v>0.008519701810436634</v>
       </c>
       <c r="O3">
-        <v>-0.01820330969267139</v>
+        <v>-0.008879023307436182</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,79 +755,79 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.077</v>
+        <v>0.08</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>4.22</v>
+        <v>13.1</v>
       </c>
       <c r="V3">
-        <v>0.1981220657276995</v>
+        <v>1.395101171458999</v>
       </c>
       <c r="W3">
-        <v>-0.1414715719063545</v>
+        <v>-0.3618473895582329</v>
       </c>
       <c r="X3">
-        <v>0.1768971819115186</v>
+        <v>0.2555988101718658</v>
       </c>
       <c r="Y3">
-        <v>-0.3183687538178731</v>
+        <v>-0.6174461997300987</v>
       </c>
       <c r="Z3">
-        <v>7.589307411907657</v>
+        <v>4.933120383310042</v>
       </c>
       <c r="AA3">
-        <v>-0.02697448359659782</v>
+        <v>-0.05280495108804153</v>
       </c>
       <c r="AB3">
-        <v>0.05540736900748012</v>
+        <v>0.05236499156289162</v>
       </c>
       <c r="AC3">
-        <v>-0.08238185260407793</v>
+        <v>-0.1051699426509332</v>
       </c>
       <c r="AD3">
-        <v>98.3</v>
+        <v>62.3</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>98.3</v>
+        <v>62.3</v>
       </c>
       <c r="AG3">
-        <v>94.08</v>
+        <v>49.2</v>
       </c>
       <c r="AH3">
-        <v>0.8219063545150502</v>
+        <v>0.8690193890361277</v>
       </c>
       <c r="AI3">
-        <v>0.7965964343598054</v>
+        <v>0.7976952624839949</v>
       </c>
       <c r="AJ3">
-        <v>0.8153926157046282</v>
+        <v>0.8397337429595494</v>
       </c>
       <c r="AK3">
-        <v>0.7893941936566538</v>
+        <v>0.7569230769230768</v>
       </c>
       <c r="AL3">
-        <v>0.965</v>
+        <v>1.06</v>
       </c>
       <c r="AM3">
-        <v>0.965</v>
+        <v>1.06</v>
       </c>
       <c r="AN3">
-        <v>106.0409924487594</v>
+        <v>-14.52214452214452</v>
       </c>
       <c r="AO3">
-        <v>-2.300518134715026</v>
+        <v>-4.990566037735849</v>
       </c>
       <c r="AP3">
-        <v>101.4886731391586</v>
+        <v>-11.46853146853147</v>
       </c>
       <c r="AQ3">
-        <v>-2.300518134715026</v>
+        <v>-4.990566037735849</v>
       </c>
     </row>
   </sheetData>
